--- a/datoss.xlsx
+++ b/datoss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documentos_Maciel_Supo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23813CAD-5D47-4675-8197-0D9B511F3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C756132-D79D-4557-B995-0CCAF3EDDC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{8BFFD8AC-C557-4424-A7B5-86FA1C487027}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>cj</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>DEUDA_TOTAL_MN_VENDIDO_enero24</t>
+  </si>
+  <si>
+    <t>rt</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA1F20C-3660-474E-B9D8-6911EC0722B7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD25880"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +459,11 @@
         <v>12089.67</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
